--- a/expre.xlsx
+++ b/expre.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>tiny</t>
   </si>
@@ -48,6 +49,39 @@
   </si>
   <si>
     <t>pedestrian</t>
+  </si>
+  <si>
+    <t>yolo</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>Faster-RCNN</t>
+  </si>
+  <si>
+    <t>zf</t>
+  </si>
+  <si>
+    <t>VGG_M</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>15h</t>
   </si>
 </sst>
 </file>
@@ -364,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+    <sheetView zoomScale="177" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
@@ -457,4 +491,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>1/70</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C3">
+        <f>59/828</f>
+        <v>7.1256038647342992E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/expre.xlsx
+++ b/expre.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>tiny</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>15h</t>
+  </si>
+  <si>
+    <t>7k</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>8w</t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,12 +539,18 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>1/70</f>
-        <v>1.4285714285714285E-2</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <f>59/828</f>
-        <v>7.1256038647342992E-2</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -565,10 +580,18 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
